--- a/resource/case.xlsx
+++ b/resource/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="22488" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,8 +58,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -105,9 +105,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,24 +151,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,39 +165,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,44 +196,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,8 +216,32 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,19 +256,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,43 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,103 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,17 +444,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,35 +497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -520,6 +508,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,15 +541,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -555,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,16 +561,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,115 +579,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,20 +1035,20 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.4416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.4416666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.4444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="34.1083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1111111111111" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.3333333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.775" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7777777777778" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1097,94 +1091,94 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="4"/>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" ht="55.05" customHeight="1" spans="2:7">
       <c r="B3" s="5"/>
-      <c r="C3" s="1"/>
       <c r="D3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="52.05" customHeight="1" spans="1:4">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" ht="60" customHeight="1" spans="2:7">
       <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
       <c r="D5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:8">
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
       <c r="D6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" ht="60" customHeight="1" spans="2:4">
       <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" ht="60" customHeight="1" spans="1:4">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" ht="60" customHeight="1" spans="1:4">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" ht="60" customHeight="1" spans="1:4">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" ht="60" customHeight="1" spans="1:4">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" ht="60" customHeight="1" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
       <c r="D12" s="4"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="1:4">
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" ht="60" customHeight="1" spans="1:4">
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" ht="60" customHeight="1" spans="1:4">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" ht="60" customHeight="1" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
       <c r="D16" s="4"/>
     </row>
   </sheetData>
